--- a/REGULAR/CPDO/BAYOT, EMILIANA.xlsx
+++ b/REGULAR/CPDO/BAYOT, EMILIANA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="372">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1144,6 +1144,12 @@
   </si>
   <si>
     <t>CPDO</t>
+  </si>
+  <si>
+    <t>11/28-30/2023</t>
+  </si>
+  <si>
+    <t>10/23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -3550,7 +3556,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K562" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K563" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3928,12 +3934,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K562"/>
+  <dimension ref="A2:K563"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A483"/>
+      <pane ySplit="3690" topLeftCell="A498" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B501" sqref="B501"/>
+      <selection pane="bottomLeft" activeCell="K516" sqref="K516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4094,7 +4100,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44.790000000000248</v>
+        <v>46.790000000000248</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4104,7 +4110,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>178.75</v>
+        <v>181.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15189,13 +15195,15 @@
         <v>45108</v>
       </c>
       <c r="B512" s="20"/>
-      <c r="C512" s="13"/>
+      <c r="C512" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D512" s="39"/>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
-      <c r="G512" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G512" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H512" s="39"/>
       <c r="I512" s="9"/>
@@ -15207,13 +15215,15 @@
         <v>45139</v>
       </c>
       <c r="B513" s="20"/>
-      <c r="C513" s="13"/>
+      <c r="C513" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D513" s="39"/>
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
-      <c r="G513" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G513" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H513" s="39"/>
       <c r="I513" s="9"/>
@@ -15225,13 +15235,15 @@
         <v>45170</v>
       </c>
       <c r="B514" s="20"/>
-      <c r="C514" s="13"/>
+      <c r="C514" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D514" s="39"/>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
-      <c r="G514" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G514" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H514" s="39"/>
       <c r="I514" s="9"/>
@@ -15242,25 +15254,33 @@
       <c r="A515" s="40">
         <v>45200</v>
       </c>
-      <c r="B515" s="20"/>
-      <c r="C515" s="13"/>
-      <c r="D515" s="39"/>
+      <c r="B515" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C515" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D515" s="39">
+        <v>3</v>
+      </c>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
-      <c r="G515" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G515" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H515" s="39"/>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
-      <c r="K515" s="20"/>
+      <c r="K515" s="20" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A516" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B516" s="20"/>
+      <c r="A516" s="40"/>
+      <c r="B516" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C516" s="13"/>
       <c r="D516" s="39"/>
       <c r="E516" s="9"/>
@@ -15269,14 +15289,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H516" s="39"/>
+      <c r="H516" s="39">
+        <v>2</v>
+      </c>
       <c r="I516" s="9"/>
       <c r="J516" s="11"/>
-      <c r="K516" s="20"/>
+      <c r="K516" s="20" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15294,7 +15318,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15312,7 +15336,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15330,7 +15354,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15348,7 +15372,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15366,7 +15390,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15384,7 +15408,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15402,7 +15426,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15420,7 +15444,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15438,7 +15462,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15456,7 +15480,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15474,7 +15498,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15492,7 +15516,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15510,7 +15534,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15528,7 +15552,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15546,7 +15570,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15564,7 +15588,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15582,7 +15606,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15600,7 +15624,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15618,7 +15642,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15636,7 +15660,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15654,7 +15678,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15672,7 +15696,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15690,7 +15714,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15708,43 +15732,43 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45992</v>
-      </c>
-      <c r="B541" s="15"/>
-      <c r="C541" s="41"/>
-      <c r="D541" s="42"/>
+        <v>45962</v>
+      </c>
+      <c r="B541" s="20"/>
+      <c r="C541" s="13"/>
+      <c r="D541" s="39"/>
       <c r="E541" s="9"/>
-      <c r="F541" s="15"/>
-      <c r="G541" s="41" t="str">
+      <c r="F541" s="20"/>
+      <c r="G541" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H541" s="42"/>
+      <c r="H541" s="39"/>
       <c r="I541" s="9"/>
-      <c r="J541" s="12"/>
-      <c r="K541" s="15"/>
+      <c r="J541" s="11"/>
+      <c r="K541" s="20"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>46023</v>
-      </c>
-      <c r="B542" s="20"/>
-      <c r="C542" s="13"/>
-      <c r="D542" s="39"/>
+        <v>45992</v>
+      </c>
+      <c r="B542" s="15"/>
+      <c r="C542" s="41"/>
+      <c r="D542" s="42"/>
       <c r="E542" s="9"/>
-      <c r="F542" s="20"/>
-      <c r="G542" s="13" t="str">
+      <c r="F542" s="15"/>
+      <c r="G542" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H542" s="39"/>
+      <c r="H542" s="42"/>
       <c r="I542" s="9"/>
-      <c r="J542" s="11"/>
-      <c r="K542" s="20"/>
+      <c r="J542" s="12"/>
+      <c r="K542" s="15"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15762,7 +15786,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15780,7 +15804,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15798,7 +15822,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15816,7 +15840,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15834,7 +15858,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15852,7 +15876,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15870,7 +15894,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15888,7 +15912,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15906,7 +15930,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15924,7 +15948,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15942,7 +15966,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15960,7 +15984,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15978,7 +16002,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15996,7 +16020,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16014,7 +16038,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16032,7 +16056,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16050,7 +16074,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16068,7 +16092,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16086,7 +16110,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16101,6 +16125,24 @@
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A563" s="40">
+        <v>46631</v>
+      </c>
+      <c r="B563" s="20"/>
+      <c r="C563" s="13"/>
+      <c r="D563" s="39"/>
+      <c r="E563" s="9"/>
+      <c r="F563" s="20"/>
+      <c r="G563" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H563" s="39"/>
+      <c r="I563" s="9"/>
+      <c r="J563" s="11"/>
+      <c r="K563" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16270,7 +16312,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>223.54000000000025</v>
+        <v>228.54000000000025</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
